--- a/trunk/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f104_bao_cao_nhan_su_theo_phong_ban.xlsx
+++ b/trunk/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f104_bao_cao_nhan_su_theo_phong_ban.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>TỔ HỢP GIÁO DỤC TOPICA
 Trụ sở chính: Phòng 310, nhà A17, số 17, Tạ Quang Bửu, Hà Nội
@@ -46,16 +46,52 @@
     <t>BÁO CÁO NHÂN SỰ THEO PHÒNG BAN</t>
   </si>
   <si>
-    <t>Chức vụ</t>
-  </si>
-  <si>
-    <t>Trạng thái chức vụ</t>
-  </si>
-  <si>
     <t>Ngày bắt đầu</t>
   </si>
   <si>
     <t>Ngày kết thúc</t>
+  </si>
+  <si>
+    <t>Địa bàn</t>
+  </si>
+  <si>
+    <t>Mã đơn vị</t>
+  </si>
+  <si>
+    <t>Tên đơn vị</t>
+  </si>
+  <si>
+    <t>Tên chức vụ</t>
+  </si>
+  <si>
+    <t>Cấp đơn vị</t>
+  </si>
+  <si>
+    <t>Loại đơn vị</t>
+  </si>
+  <si>
+    <t>Mã quyết định</t>
+  </si>
+  <si>
+    <t>Ngày có hiệu lực</t>
+  </si>
+  <si>
+    <t>Ngày hết hiệu lực</t>
+  </si>
+  <si>
+    <t>Loại chức vụ</t>
+  </si>
+  <si>
+    <t>Ngạch</t>
+  </si>
+  <si>
+    <t>Trạng Thái chức vụ</t>
+  </si>
+  <si>
+    <t>Mã quyết định miễn nhiệm</t>
+  </si>
+  <si>
+    <t>Tỷ lệ tham gia(%)</t>
   </si>
 </sst>
 </file>
@@ -431,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:J7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,9 +485,11 @@
     <col min="8" max="8" width="19.140625" customWidth="1"/>
     <col min="9" max="9" width="21.28515625" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -462,7 +500,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
@@ -471,7 +509,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -481,30 +519,66 @@
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="H7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>11</v>
+      <c r="Q7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f104_bao_cao_nhan_su_theo_phong_ban.xlsx
+++ b/trunk/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f104_bao_cao_nhan_su_theo_phong_ban.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>TỔ HỢP GIÁO DỤC TOPICA
 Trụ sở chính: Phòng 310, nhà A17, số 17, Tạ Quang Bửu, Hà Nội
@@ -46,12 +46,6 @@
     <t>BÁO CÁO NHÂN SỰ THEO PHÒNG BAN</t>
   </si>
   <si>
-    <t>Ngày bắt đầu</t>
-  </si>
-  <si>
-    <t>Ngày kết thúc</t>
-  </si>
-  <si>
     <t>Địa bàn</t>
   </si>
   <si>
@@ -73,25 +67,37 @@
     <t>Mã quyết định</t>
   </si>
   <si>
-    <t>Ngày có hiệu lực</t>
-  </si>
-  <si>
-    <t>Ngày hết hiệu lực</t>
-  </si>
-  <si>
     <t>Loại chức vụ</t>
   </si>
   <si>
     <t>Ngạch</t>
   </si>
   <si>
-    <t>Trạng Thái chức vụ</t>
-  </si>
-  <si>
-    <t>Mã quyết định miễn nhiệm</t>
-  </si>
-  <si>
-    <t>Tỷ lệ tham gia(%)</t>
+    <t>Ngày bắt đầu chức vụ</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc chức vụ</t>
+  </si>
+  <si>
+    <t>Loại QĐ</t>
+  </si>
+  <si>
+    <t>Ngày QĐ có hiệu lực</t>
+  </si>
+  <si>
+    <t>Ngày QĐ hết hiệu lực</t>
+  </si>
+  <si>
+    <t>Trạng thái chức vụ</t>
+  </si>
+  <si>
+    <t>Mã QĐ miễn nhiệm</t>
+  </si>
+  <si>
+    <t>Tỷ lệ tham gia</t>
+  </si>
+  <si>
+    <t>Trạng thái LĐ hiện tại</t>
   </si>
 </sst>
 </file>
@@ -467,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:T7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +495,7 @@
     <col min="19" max="19" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -500,7 +506,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
@@ -509,7 +515,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -519,15 +525,15 @@
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="7" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
@@ -542,16 +548,16 @@
         <v>6</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>17</v>
@@ -560,25 +566,31 @@
         <v>18</v>
       </c>
       <c r="N7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="P7" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f104_bao_cao_nhan_su_theo_phong_ban.xlsx
+++ b/trunk/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f104_bao_cao_nhan_su_theo_phong_ban.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D\0.Du an\BKI_HRM\03. SourceCode\BKI_HRM\bin\Debug\Reports\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>TỔ HỢP GIÁO DỤC TOPICA
 Trụ sở chính: Phòng 310, nhà A17, số 17, Tạ Quang Bửu, Hà Nội
@@ -64,40 +69,37 @@
     <t>Loại đơn vị</t>
   </si>
   <si>
-    <t>Mã quyết định</t>
-  </si>
-  <si>
     <t>Loại chức vụ</t>
   </si>
   <si>
-    <t>Ngạch</t>
-  </si>
-  <si>
     <t>Ngày bắt đầu chức vụ</t>
   </si>
   <si>
     <t>Ngày kết thúc chức vụ</t>
   </si>
   <si>
-    <t>Loại QĐ</t>
-  </si>
-  <si>
-    <t>Ngày QĐ có hiệu lực</t>
-  </si>
-  <si>
-    <t>Ngày QĐ hết hiệu lực</t>
-  </si>
-  <si>
-    <t>Trạng thái chức vụ</t>
-  </si>
-  <si>
-    <t>Mã QĐ miễn nhiệm</t>
-  </si>
-  <si>
     <t>Tỷ lệ tham gia</t>
   </si>
   <si>
-    <t>Trạng thái LĐ hiện tại</t>
+    <t>Mã HeadCount</t>
+  </si>
+  <si>
+    <t>Trạng thái lao động</t>
+  </si>
+  <si>
+    <t>Ngày có hiệu lực trạng thái lao động</t>
+  </si>
+  <si>
+    <t>Ngày hết hiệu lực trạng thái lao động</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>Trình độ</t>
   </si>
 </sst>
 </file>
@@ -182,6 +184,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -229,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,7 +269,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +500,7 @@
     <col min="19" max="19" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -506,7 +511,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
@@ -515,7 +520,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -525,7 +530,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -536,46 +541,46 @@
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>16</v>
@@ -588,9 +593,6 @@
       </c>
       <c r="U7" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f104_bao_cao_nhan_su_theo_phong_ban.xlsx
+++ b/trunk/03. SourceCode/BKI_HRM/bin/Debug/Reports/Templates/f104_bao_cao_nhan_su_theo_phong_ban.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D\0.Du an\BKI_HRM\03. SourceCode\BKI_HRM\bin\Debug\Reports\Templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>TỔ HỢP GIÁO DỤC TOPICA
 Trụ sở chính: Phòng 310, nhà A17, số 17, Tạ Quang Bửu, Hà Nội
@@ -81,25 +76,28 @@
     <t>Tỷ lệ tham gia</t>
   </si>
   <si>
-    <t>Mã HeadCount</t>
-  </si>
-  <si>
-    <t>Trạng thái lao động</t>
-  </si>
-  <si>
-    <t>Ngày có hiệu lực trạng thái lao động</t>
-  </si>
-  <si>
-    <t>Ngày hết hiệu lực trạng thái lao động</t>
-  </si>
-  <si>
-    <t>Giới tính</t>
-  </si>
-  <si>
-    <t>Ngày sinh</t>
-  </si>
-  <si>
-    <t>Trình độ</t>
+    <t>Trạng thái LĐ hiện tại</t>
+  </si>
+  <si>
+    <t>Mã quyết định</t>
+  </si>
+  <si>
+    <t>Loại QĐ</t>
+  </si>
+  <si>
+    <t>Ngày QĐ có hiệu lực</t>
+  </si>
+  <si>
+    <t>Ngày QĐ hết hiệu lực</t>
+  </si>
+  <si>
+    <t>Ngạch</t>
+  </si>
+  <si>
+    <t>Trạng thái chức vụ</t>
+  </si>
+  <si>
+    <t>Mã QĐ miễn nhiệm</t>
   </si>
 </sst>
 </file>
@@ -153,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -173,6 +171,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -234,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,7 +271,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -478,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,10 +499,14 @@
     <col min="9" max="9" width="21.28515625" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" style="8" customWidth="1"/>
     <col min="19" max="19" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -511,7 +517,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
@@ -520,7 +526,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -530,45 +536,45 @@
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>17</v>
+      <c r="L7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>19</v>
@@ -576,23 +582,26 @@
       <c r="O7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>15</v>
+      <c r="Q7" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
